--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3458.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3458.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.700823105210607</v>
+        <v>1.154748678207397</v>
       </c>
       <c r="B1">
-        <v>1.809909699797235</v>
+        <v>2.00465989112854</v>
       </c>
       <c r="C1">
-        <v>1.885337650726724</v>
+        <v>5.553575038909912</v>
       </c>
       <c r="D1">
-        <v>2.510967166403681</v>
+        <v>0.739995002746582</v>
       </c>
       <c r="E1">
-        <v>4.253582704446867</v>
+        <v>0.8718262910842896</v>
       </c>
     </row>
   </sheetData>
